--- a/analysis_Campinas/campinas_datasus/cps2016_dt_c.xlsx
+++ b/analysis_Campinas/campinas_datasus/cps2016_dt_c.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">cid_grupos</t>
   </si>
@@ -68,6 +68,12 @@
     <t xml:space="preserve">80 anos e mais</t>
   </si>
   <si>
+    <t xml:space="preserve">Idade ignorada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
     <t xml:space="preserve">Doenças do aparelho circulatório</t>
   </si>
   <si>
@@ -81,6 +87,9 @@
   </si>
   <si>
     <t xml:space="preserve">Neoplasmas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros</t>
   </si>
 </sst>
 </file>
@@ -467,10 +476,16 @@
       <c r="R1" t="s">
         <v>17</v>
       </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
         <v>5</v>
@@ -522,11 +537,15 @@
       </c>
       <c r="R2" t="n">
         <v>773</v>
+      </c>
+      <c r="S2"/>
+      <c r="T2" t="n">
+        <v>2078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -576,11 +595,15 @@
       </c>
       <c r="R3" t="n">
         <v>150</v>
+      </c>
+      <c r="S3"/>
+      <c r="T3" t="n">
+        <v>301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="n">
         <v>10</v>
@@ -631,10 +654,14 @@
       <c r="R4" t="n">
         <v>544</v>
       </c>
+      <c r="S4"/>
+      <c r="T4" t="n">
+        <v>1084</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -683,10 +710,14 @@
       <c r="R5" t="n">
         <v>97</v>
       </c>
+      <c r="S5"/>
+      <c r="T5" t="n">
+        <v>240</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
@@ -738,6 +769,134 @@
       </c>
       <c r="R6" t="n">
         <v>311</v>
+      </c>
+      <c r="S6"/>
+      <c r="T6" t="n">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="n">
+        <v>137</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="n">
+        <v>28</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80</v>
+      </c>
+      <c r="G7" t="n">
+        <v>71</v>
+      </c>
+      <c r="H7" t="n">
+        <v>75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>94</v>
+      </c>
+      <c r="J7" t="n">
+        <v>80</v>
+      </c>
+      <c r="K7" t="n">
+        <v>82</v>
+      </c>
+      <c r="L7" t="n">
+        <v>118</v>
+      </c>
+      <c r="M7" t="n">
+        <v>112</v>
+      </c>
+      <c r="N7" t="n">
+        <v>115</v>
+      </c>
+      <c r="O7" t="n">
+        <v>123</v>
+      </c>
+      <c r="P7" t="n">
+        <v>122</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>155</v>
+      </c>
+      <c r="R7" t="n">
+        <v>568</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>157</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>98</v>
+      </c>
+      <c r="G8" t="n">
+        <v>91</v>
+      </c>
+      <c r="H8" t="n">
+        <v>113</v>
+      </c>
+      <c r="I8" t="n">
+        <v>169</v>
+      </c>
+      <c r="J8" t="n">
+        <v>173</v>
+      </c>
+      <c r="K8" t="n">
+        <v>239</v>
+      </c>
+      <c r="L8" t="n">
+        <v>361</v>
+      </c>
+      <c r="M8" t="n">
+        <v>478</v>
+      </c>
+      <c r="N8" t="n">
+        <v>535</v>
+      </c>
+      <c r="O8" t="n">
+        <v>635</v>
+      </c>
+      <c r="P8" t="n">
+        <v>700</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>807</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2443</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7058</v>
       </c>
     </row>
   </sheetData>
